--- a/outputs/SORs/SOR Testing_PES Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_PES Segment Functions.xlsx
@@ -13,31 +13,32 @@
     <sheet name="El Paso Texas - EPC" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Fort Wayne Indiana" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Grafton Wisconsin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Juarez Casa SS" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Juarez Mej SS" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Manila Philippines" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Monterrey Rbm Mexico" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Piedras Negras Fasco Mexico" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Rosemont Illinois" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Rowville Victoria" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Tipp City Ohio" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Zug Switzerland" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Guadalajara Mexico" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Shanghai China" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Faridabad India" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Jiaxing China" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Chino California" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Florence Kentucky" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Indianapolis Indiana" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Lavergne Tennessee" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Pharr Texas" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Indianapolis Indiana" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Juarez Casa SS" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Juarez Mej SS" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Manila Philippines" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Mississauga Canada" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Monterrey Rbm Mexico" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Pharr Texas" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Piedras Negras Fasco Mexico" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Rosemont Illinois" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Rowville Victoria" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Tipp City Ohio" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Zug Switzerland" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Guadalajara Mexico" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Shanghai China" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Faridabad India" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Jiaxing China" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Chino California" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Florence Kentucky" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Lavergne Tennessee" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -51,7 +52,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -150,6 +151,12 @@
     <t xml:space="preserve">Grafton Wisconsin</t>
   </si>
   <si>
+    <t xml:space="preserve">Indianapolis Indiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing Voluntary Turnover</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juarez Casa SS</t>
   </si>
   <si>
@@ -162,10 +169,13 @@
     <t xml:space="preserve">Milwaukee Pmc Hq Wisconsin</t>
   </si>
   <si>
+    <t xml:space="preserve">Mississauga Canada</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monterrey Rbm Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturing Voluntary Turnover</t>
+    <t xml:space="preserve">Pharr Texas</t>
   </si>
   <si>
     <t xml:space="preserve">Piedras Negras Fasco Mexico</t>
@@ -201,20 +211,14 @@
     <t xml:space="preserve">Florence Kentucky</t>
   </si>
   <si>
-    <t xml:space="preserve">Indianapolis Indiana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lavergne Tennessee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharr Texas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="26">
+  <numFmts count="27">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -241,6 +245,7 @@
     <numFmt numFmtId="188" formatCode="0.0%"/>
     <numFmt numFmtId="189" formatCode="0.0%"/>
     <numFmt numFmtId="190" formatCode="0.0%"/>
+    <numFmt numFmtId="191" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -276,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -304,6 +309,7 @@
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,7 +980,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1045,7 +1051,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1116,7 +1122,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1177,73 +1183,6 @@
       </c>
       <c r="W4" s="10" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="O5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="P5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="Q5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="R5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="S5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="T5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="U5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="V5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="W5" s="10" t="n">
-        <v>0.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1410,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1481,7 +1420,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1499,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0.2128</v>
+        <v>0</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>0</v>
@@ -1552,177 +1491,63 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
+      <c r="L5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="V5" s="11" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="W5" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="11" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1643,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1869,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="T2" s="12" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="U2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="12" t="n">
-        <v>0.0813</v>
+        <v>0</v>
       </c>
       <c r="W2" s="12" t="n">
-        <v>0.0877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1889,7 +1714,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1940,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="12" t="n">
-        <v>0.07497</v>
+        <v>0</v>
       </c>
       <c r="U3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="12" t="n">
-        <v>0.07317</v>
+        <v>0</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>0.07893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1960,7 +1785,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1978,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0</v>
+        <v>0.2128</v>
       </c>
       <c r="K4" s="12" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12" t="n">
         <v>0</v>
@@ -2031,27 +1856,29 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -2072,12 +1899,14 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -2141,209 +1970,63 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="12"/>
       <c r="H7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K7" s="12"/>
       <c r="L7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="12" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <v>0.0455</v>
+        <v>1</v>
       </c>
       <c r="R7" s="12" t="n">
-        <v>0.1878</v>
+        <v>1</v>
       </c>
       <c r="S7" s="12" t="n">
-        <v>0.087</v>
+        <v>1</v>
       </c>
       <c r="T7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="12" t="n">
-        <v>0.0435</v>
+        <v>1</v>
       </c>
       <c r="V7" s="12" t="n">
-        <v>0.1288</v>
+        <v>1</v>
       </c>
       <c r="W7" s="12" t="n">
-        <v>0.3365</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="Q8" s="12" t="n">
-        <v>0.04095</v>
-      </c>
-      <c r="R8" s="12" t="n">
-        <v>0.16902</v>
-      </c>
-      <c r="S8" s="12" t="n">
-        <v>0.0783</v>
-      </c>
-      <c r="T8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="12" t="n">
-        <v>0.03915</v>
-      </c>
-      <c r="V8" s="12" t="n">
-        <v>0.11592</v>
-      </c>
-      <c r="W8" s="12" t="n">
-        <v>0.30285</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="12" t="n">
-        <v>0.0455</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>0.1843</v>
-      </c>
-      <c r="K9" s="12" t="n">
-        <v>0.0435</v>
-      </c>
-      <c r="L9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2573,187 +2256,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2898,16 +2400,16 @@
         <v>0</v>
       </c>
       <c r="T2" s="14" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="U2" s="14" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="14" t="n">
-        <v>0</v>
+        <v>0.0813</v>
       </c>
       <c r="W2" s="14" t="n">
-        <v>0</v>
+        <v>0.0877</v>
       </c>
     </row>
     <row r="3">
@@ -2969,16 +2471,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="14" t="n">
-        <v>0</v>
+        <v>0.07497</v>
       </c>
       <c r="U3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="14" t="n">
-        <v>0</v>
+        <v>0.07317</v>
       </c>
       <c r="W3" s="14" t="n">
-        <v>0</v>
+        <v>0.07893</v>
       </c>
     </row>
     <row r="4">
@@ -3013,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="14" t="n">
-        <v>0</v>
+        <v>0.0909</v>
       </c>
       <c r="L4" s="14" t="n">
         <v>0</v>
@@ -3065,9 +2567,7 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="E5" s="14"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -3075,22 +2575,22 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="N5" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="T5" s="14"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="V5" s="14"/>
       <c r="W5" s="14" t="n">
         <v>0</v>
       </c>
@@ -3108,9 +2608,7 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="E6" s="14"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -3177,58 +2675,206 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q7" s="14" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="R7" s="14" t="n">
+        <v>0.1878</v>
+      </c>
+      <c r="S7" s="14" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="T7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="V7" s="14" t="n">
+        <v>0.1288</v>
+      </c>
+      <c r="W7" s="14" t="n">
+        <v>0.3365</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="Q8" s="14" t="n">
+        <v>0.04095</v>
+      </c>
+      <c r="R8" s="14" t="n">
+        <v>0.16902</v>
+      </c>
+      <c r="S8" s="14" t="n">
+        <v>0.0783</v>
+      </c>
+      <c r="T8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14" t="n">
+        <v>0.03915</v>
+      </c>
+      <c r="V8" s="14" t="n">
+        <v>0.11592</v>
+      </c>
+      <c r="W8" s="14" t="n">
+        <v>0.30285</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="14" t="n">
-        <v>1</v>
+      <c r="G9" s="14" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14" t="n">
+        <v>0.1843</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3329,7 +2975,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3357,14 +3005,30 @@
       <c r="N2" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
+      <c r="O2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="15" t="n">
         <v>0</v>
       </c>
@@ -3382,7 +3046,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3410,15 +3076,98 @@
       <c r="N3" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
+      <c r="O3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3521,7 +3270,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3592,7 +3341,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3663,7 +3412,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3681,43 +3430,153 @@
         <v>0</v>
       </c>
       <c r="K4" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="16" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4031,18 +3890,16 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="H5" s="17"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -4052,11 +3909,15 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="T5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="W5" s="17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4072,7 +3933,9 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -4126,6 +3989,71 @@
       </c>
       <c r="W6" s="17" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="17" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4232,42 +4160,38 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="G2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="M2" s="18" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
       <c r="W2" s="18" t="n">
         <v>0</v>
       </c>
@@ -4291,114 +4215,39 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="G3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" s="18" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
       <c r="W3" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4506,14 +4355,30 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="G2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="O2" s="19" t="n">
         <v>0</v>
       </c>
@@ -4561,14 +4426,30 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="G3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="O3" s="19" t="n">
         <v>0</v>
       </c>
@@ -4629,149 +4510,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N4" s="19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5286,18 +5061,42 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="G2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="S2" s="20" t="n">
         <v>0</v>
       </c>
@@ -5333,18 +5132,42 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="G3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="S3" s="20" t="n">
         <v>0</v>
       </c>
@@ -5386,11 +5209,15 @@
       <c r="H4" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="L4" s="20" t="n">
         <v>0</v>
       </c>
@@ -5426,6 +5253,116 @@
       </c>
       <c r="W4" s="20" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="20" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5530,18 +5467,14 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="21" t="n">
         <v>0</v>
       </c>
@@ -5573,6 +5506,136 @@
         <v>0</v>
       </c>
       <c r="W2" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5672,48 +5735,46 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="E2" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="P2" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="R2" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
+      <c r="S2" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="22" t="n">
         <v>0</v>
       </c>
@@ -5729,49 +5790,228 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="E3" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="P3" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="R3" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
+      <c r="S3" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="22" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5871,48 +6111,38 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="E2" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
-      <c r="R2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="23" t="n">
         <v>0</v>
       </c>
@@ -5928,49 +6158,106 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="E3" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
-      <c r="R3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6070,24 +6357,18 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="E2" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="24" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="24" t="n">
         <v>0</v>
       </c>
@@ -6104,13 +6385,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="24" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="24" t="n">
-        <v>0.3704</v>
+        <v>0</v>
       </c>
       <c r="S2" s="24" t="n">
         <v>0</v>
@@ -6125,76 +6406,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="24" t="n">
-        <v>0.3846</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="24" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="24" t="n">
-        <v>0.33336</v>
-      </c>
-      <c r="S3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="24" t="n">
-        <v>0.34614</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6293,36 +6505,50 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="E2" s="25" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="G2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="R2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
       <c r="W2" s="25" t="n">
         <v>0</v>
       </c>
@@ -6338,36 +6564,50 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="E3" s="25" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="G3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="R3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
       <c r="W3" s="25" t="n">
         <v>0</v>
       </c>
@@ -6468,16 +6708,20 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="26" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="I2" s="26" t="n">
         <v>0</v>
       </c>
@@ -6499,28 +6743,254 @@
       <c r="O2" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
       <c r="R2" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
       <c r="W2" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="26" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="27" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="27" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7218,7 +7688,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7271,7 +7743,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -7750,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="7" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="T2" s="7" t="n">
         <v>0</v>
@@ -7759,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="7" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="W2" s="7" t="n">
-        <v>0.1587</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="3">
@@ -7821,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="7" t="n">
-        <v>0.18</v>
+        <v>0.15003</v>
       </c>
       <c r="T3" s="7" t="n">
         <v>0</v>
@@ -7830,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>0.18</v>
+        <v>0.15003</v>
       </c>
       <c r="W3" s="7" t="n">
-        <v>0.14283</v>
+        <v>0.1233</v>
       </c>
     </row>
     <row r="4">
@@ -8255,13 +8729,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0</v>
@@ -8291,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0</v>
+        <v>0.3704</v>
       </c>
       <c r="S4" s="8" t="n">
         <v>0</v>
@@ -8312,7 +8786,78 @@
         <v>0</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
+        <v>0.3846</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <v>0.33336</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8" t="n">
+        <v>0.34614</v>
       </c>
     </row>
   </sheetData>
@@ -8408,7 +8953,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -8479,7 +9024,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -8550,7 +9095,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>

--- a/outputs/SORs/SOR Testing_PES Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_PES Segment Functions.xlsx
@@ -29,16 +29,15 @@
     <sheet name="Guadalajara Mexico" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="Shanghai China" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="Faridabad India" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Jiaxing China" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Chino California" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Florence Kentucky" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Lavergne Tennessee" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Chino California" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Florence Kentucky" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Lavergne Tennessee" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -202,9 +201,6 @@
     <t xml:space="preserve">Faridabad India</t>
   </si>
   <si>
-    <t xml:space="preserve">Jiaxing China</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chino California</t>
   </si>
   <si>
@@ -218,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="27">
+  <numFmts count="26">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -245,7 +241,6 @@
     <numFmt numFmtId="188" formatCode="0.0%"/>
     <numFmt numFmtId="189" formatCode="0.0%"/>
     <numFmt numFmtId="190" formatCode="0.0%"/>
-    <numFmt numFmtId="191" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -281,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -309,7 +304,6 @@
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1513,9 +1507,7 @@
       <c r="K5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="11" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -1803,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0.2128</v>
+        <v>0.1754</v>
       </c>
       <c r="K4" s="12" t="n">
         <v>0</v>
@@ -1862,7 +1854,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1905,7 +1897,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1976,7 +1968,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1993,40 +1985,40 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="N7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="O7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2510,7 @@
         <v>0.0909</v>
       </c>
       <c r="L4" s="14" t="n">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="M4" s="14" t="n">
         <v>0</v>
@@ -2678,7 +2670,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2749,7 +2741,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2820,7 +2812,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2841,7 +2833,7 @@
         <v>0.0435</v>
       </c>
       <c r="L9" s="14" t="n">
-        <v>0</v>
+        <v>0.0455</v>
       </c>
       <c r="M9" s="14" t="n">
         <v>0</v>
@@ -3118,7 +3110,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4010,14 +4002,10 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17" t="n">
         <v>1</v>
@@ -4513,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="19" t="n">
         <v>0.0833333333333333</v>
@@ -5845,38 +5833,22 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="22" t="n">
         <v>0</v>
       </c>
@@ -5919,10 +5891,10 @@
         <v>38</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -5957,61 +5929,6 @@
         <v>0</v>
       </c>
       <c r="W5" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="22" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6224,9 +6141,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="23"/>
-      <c r="L4" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="23"/>
       <c r="M4" s="23" t="n">
         <v>0</v>
       </c>
@@ -6357,18 +6272,26 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>0</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+        <v>27</v>
+      </c>
+      <c r="G2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" s="24" t="n">
         <v>0</v>
       </c>
@@ -6384,28 +6307,75 @@
       <c r="O2" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
       <c r="R2" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
       <c r="W2" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="24" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6508,7 +6478,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6567,7 +6537,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6711,47 +6681,35 @@
         <v>38</v>
       </c>
       <c r="E2" s="26" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
-      <c r="R2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="26" t="n">
         <v>0</v>
       </c>
@@ -6770,227 +6728,36 @@
         <v>38</v>
       </c>
       <c r="E3" s="26" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
-      <c r="R3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="27" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="27" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8732,7 +8499,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -8803,7 +8570,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>

--- a/outputs/SORs/SOR Testing_PES Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_PES Segment Functions.xlsx
@@ -1641,7 +1641,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0</v>
+        <v>0.1786</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1712,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0</v>
+        <v>0.1786</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1783,7 +1783,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0</v>
+        <v>0.1786</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1807,37 +1807,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0</v>
+        <v>0.10715</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0</v>
+        <v>0.10715</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0</v>
+        <v>0.10715</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="5">
@@ -2119,9 +2119,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="13"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2190,9 +2188,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2347,7 +2343,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0</v>
+        <v>0.1786</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2418,7 +2414,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0</v>
+        <v>0.1786</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2489,7 +2485,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0</v>
+        <v>0.1786</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2513,37 +2509,37 @@
         <v>0.1111</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0</v>
+        <v>0.10715</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0</v>
+        <v>0.10715</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0</v>
+        <v>0.0357166666666667</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0</v>
+        <v>0.10715</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="5">
@@ -2670,7 +2666,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.2727</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2741,7 +2737,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.2727</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2812,7 +2808,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.2727</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2836,37 +2832,37 @@
         <v>0.0455</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>0</v>
+        <v>0.0545416666666667</v>
       </c>
       <c r="N9" s="14" t="n">
-        <v>0</v>
+        <v>0.163625</v>
       </c>
       <c r="O9" s="14" t="n">
-        <v>0</v>
+        <v>0.0545416666666667</v>
       </c>
       <c r="P9" s="14" t="n">
-        <v>0</v>
+        <v>0.0545416666666667</v>
       </c>
       <c r="Q9" s="14" t="n">
-        <v>0</v>
+        <v>0.0545416666666667</v>
       </c>
       <c r="R9" s="14" t="n">
-        <v>0</v>
+        <v>0.163625</v>
       </c>
       <c r="S9" s="14" t="n">
-        <v>0</v>
+        <v>0.0545416666666667</v>
       </c>
       <c r="T9" s="14" t="n">
-        <v>0</v>
+        <v>0.0545416666666667</v>
       </c>
       <c r="U9" s="14" t="n">
-        <v>0</v>
+        <v>0.0545416666666667</v>
       </c>
       <c r="V9" s="14" t="n">
-        <v>0</v>
+        <v>0.163625</v>
       </c>
       <c r="W9" s="14" t="n">
-        <v>0</v>
+        <v>0.6545</v>
       </c>
     </row>
   </sheetData>
@@ -2967,9 +2963,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="15"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3038,9 +3032,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="15"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3110,7 +3102,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4142,9 +4134,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="18"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4197,9 +4187,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="18"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4338,7 +4326,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4409,7 +4397,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4480,7 +4468,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4504,37 +4492,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="N4" s="19" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -5725,9 +5713,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="22"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5780,9 +5766,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="22"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5835,9 +5819,7 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="22" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="22"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -5890,9 +5872,7 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="22" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="22"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -6274,9 +6254,7 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="24" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="24"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6333,9 +6311,7 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="24" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="24"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6477,9 +6453,7 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="25" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="25"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6536,9 +6510,7 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="25" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="25"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6680,9 +6652,7 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="26" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="26"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6727,9 +6697,7 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="26" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="26"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -7455,9 +7423,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7510,9 +7476,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -8356,9 +8320,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -8427,9 +8389,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -8498,9 +8458,7 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="8" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="8"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -8569,9 +8527,7 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="8" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_PES Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_PES Segment Functions.xlsx
@@ -1508,11 +1508,9 @@
         <v>1</v>
       </c>
       <c r="L5" s="11"/>
-      <c r="M5" s="11" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="M5" s="11"/>
       <c r="N5" s="11" t="n">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="O5" s="11" t="n">
         <v>0.666666666666667</v>
@@ -1641,7 +1639,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.1786</v>
+        <v>0.1754</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1712,7 +1710,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.1786</v>
+        <v>0.1754</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1783,7 +1781,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.1786</v>
+        <v>0.1754</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1807,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.0357166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.10715</v>
+        <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.10715</v>
+        <v>0.0877</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.10715</v>
+        <v>0.0877</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.4286</v>
+        <v>0.3508</v>
       </c>
     </row>
     <row r="5">
@@ -1987,11 +1985,9 @@
       <c r="L7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="12" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="M7" s="12"/>
       <c r="N7" s="12" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="O7" s="12" t="n">
         <v>0.666666666666667</v>
@@ -2343,7 +2339,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.1786</v>
+        <v>0.1852</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2414,7 +2410,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.1786</v>
+        <v>0.1852</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2485,7 +2481,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.1786</v>
+        <v>0.1852</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2509,37 +2505,37 @@
         <v>0.1111</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0.0357166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0.10715</v>
+        <v>0.2062</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0308666666666667</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0308666666666667</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0308666666666667</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.10715</v>
+        <v>0.0926</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0308666666666667</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0308666666666667</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0357166666666667</v>
+        <v>0.0308666666666667</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.10715</v>
+        <v>0.0926</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.4286</v>
+        <v>0.3704</v>
       </c>
     </row>
     <row r="5">
@@ -2666,7 +2662,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.2727</v>
+        <v>0.3043</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2737,7 +2733,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.2727</v>
+        <v>0.3043</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2808,61 +2804,61 @@
         <v>38</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.2727</v>
+        <v>0.3043</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="14" t="n">
-        <v>0.0455</v>
+        <v>0.0435</v>
       </c>
       <c r="H9" s="14" t="n">
-        <v>0.1429</v>
+        <v>0.1364</v>
       </c>
       <c r="I9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="14" t="n">
-        <v>0.1843</v>
+        <v>0.1762</v>
       </c>
       <c r="K9" s="14" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="L9" s="14" t="n">
         <v>0.0435</v>
       </c>
-      <c r="L9" s="14" t="n">
-        <v>0.0455</v>
-      </c>
       <c r="M9" s="14" t="n">
-        <v>0.0545416666666667</v>
+        <v>0.0435</v>
       </c>
       <c r="N9" s="14" t="n">
-        <v>0.163625</v>
+        <v>0.1288</v>
       </c>
       <c r="O9" s="14" t="n">
-        <v>0.0545416666666667</v>
+        <v>0.0507166666666667</v>
       </c>
       <c r="P9" s="14" t="n">
-        <v>0.0545416666666667</v>
+        <v>0.0507166666666667</v>
       </c>
       <c r="Q9" s="14" t="n">
-        <v>0.0545416666666667</v>
+        <v>0.0507166666666667</v>
       </c>
       <c r="R9" s="14" t="n">
-        <v>0.163625</v>
+        <v>0.15215</v>
       </c>
       <c r="S9" s="14" t="n">
-        <v>0.0545416666666667</v>
+        <v>0.0507166666666667</v>
       </c>
       <c r="T9" s="14" t="n">
-        <v>0.0545416666666667</v>
+        <v>0.0507166666666667</v>
       </c>
       <c r="U9" s="14" t="n">
-        <v>0.0545416666666667</v>
+        <v>0.0507166666666667</v>
       </c>
       <c r="V9" s="14" t="n">
-        <v>0.163625</v>
+        <v>0.15215</v>
       </c>
       <c r="W9" s="14" t="n">
-        <v>0.6545</v>
+        <v>0.6086</v>
       </c>
     </row>
   </sheetData>
@@ -4002,9 +3998,7 @@
       <c r="L7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="17"/>
       <c r="N7" s="17" t="n">
         <v>1</v>
       </c>
@@ -4326,7 +4320,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4397,7 +4391,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4468,7 +4462,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4492,37 +4486,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="19" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="N4" s="19" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0.375</v>
+        <v>0.33335</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0.375</v>
+        <v>0.33335</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>1.5</v>
+        <v>1.3334</v>
       </c>
     </row>
   </sheetData>
@@ -5581,9 +5575,7 @@
       <c r="L4" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="21"/>
       <c r="N4" s="21" t="n">
         <v>0</v>
       </c>
@@ -6122,12 +6114,8 @@
       </c>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
-      <c r="M4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="23" t="n">
         <v>0</v>
       </c>

--- a/outputs/SORs/SOR Testing_PES Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_PES Segment Functions.xlsx
@@ -1491,7 +1491,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -1504,40 +1504,34 @@
       <c r="J5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="11" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="11" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="11" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="R5" s="11" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="S5" s="11" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="T5" s="11" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="U5" s="11" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="V5" s="11" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="W5" s="11" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1811,31 +1805,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0292333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0292333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0292333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.0877</v>
+        <v>0</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0292333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0292333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0292333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.0877</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.3508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1989,9 +1983,7 @@
       <c r="N7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="12" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="O7" s="12"/>
       <c r="P7" s="12" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -2339,7 +2331,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.1852</v>
+        <v>0.1887</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2410,7 +2402,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.1852</v>
+        <v>0.1887</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2481,7 +2473,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.1852</v>
+        <v>0.1887</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2511,31 +2503,31 @@
         <v>0.2062</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.0308666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0308666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0308666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.0926</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0308666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0308666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0308666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.0926</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.3704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2662,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.3043</v>
+        <v>0.3478</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2733,7 +2725,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.3043</v>
+        <v>0.3478</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2804,7 +2796,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.3043</v>
+        <v>0.3478</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2834,31 +2826,31 @@
         <v>0.1288</v>
       </c>
       <c r="O9" s="14" t="n">
-        <v>0.0507166666666667</v>
+        <v>0.0435</v>
       </c>
       <c r="P9" s="14" t="n">
-        <v>0.0507166666666667</v>
+        <v>0.0496833333333333</v>
       </c>
       <c r="Q9" s="14" t="n">
-        <v>0.0507166666666667</v>
+        <v>0.0496833333333333</v>
       </c>
       <c r="R9" s="14" t="n">
-        <v>0.15215</v>
+        <v>0.14905</v>
       </c>
       <c r="S9" s="14" t="n">
-        <v>0.0507166666666667</v>
+        <v>0.0496833333333333</v>
       </c>
       <c r="T9" s="14" t="n">
-        <v>0.0507166666666667</v>
+        <v>0.0496833333333333</v>
       </c>
       <c r="U9" s="14" t="n">
-        <v>0.0507166666666667</v>
+        <v>0.0496833333333333</v>
       </c>
       <c r="V9" s="14" t="n">
-        <v>0.15215</v>
+        <v>0.14905</v>
       </c>
       <c r="W9" s="14" t="n">
-        <v>0.6086</v>
+        <v>0.5962</v>
       </c>
     </row>
   </sheetData>
@@ -4002,9 +3994,7 @@
       <c r="N7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="17"/>
       <c r="P7" s="17" t="n">
         <v>1</v>
       </c>
@@ -4320,7 +4310,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4391,7 +4381,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4462,7 +4452,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4492,31 +4482,31 @@
         <v>1</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0.111116666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>1.3334</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5579,9 +5569,7 @@
       <c r="N4" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="21"/>
       <c r="P4" s="21" t="n">
         <v>0</v>
       </c>
@@ -6116,9 +6104,7 @@
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
-      <c r="O4" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="23"/>
       <c r="P4" s="23" t="n">
         <v>0</v>
       </c>
